--- a/src/zr_hr237_schedule%2exlsx.w3mi.data.xlsx
+++ b/src/zr_hr237_schedule%2exlsx.w3mi.data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\moldab\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE2BB31-0910-464C-8296-CDDEE60155D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD3EA9AF-50FD-4918-9FAA-51C132A3000F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{9C76593D-35C0-4356-8452-B023FE16193B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9C76593D-35C0-4356-8452-B023FE16193B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t xml:space="preserve">Schedule on Hybryid Distance Regime </t>
   </si>
@@ -193,6 +193,99 @@
   </si>
   <si>
     <t>{R-T-DEPARTMENT_TXT} ({R-T-DEPARTMENT})</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
   </si>
 </sst>
 </file>
@@ -242,11 +335,57 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -260,29 +399,25 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
+      <left style="thin">
         <color indexed="64"/>
-      </right>
+      </left>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -294,22 +429,713 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="45">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
         <i val="0"/>
       </font>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFF7B1AF"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -321,17 +1147,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFF7B1AF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -351,6 +1166,54 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E7D263BD-C78E-40D4-A040-9C504EA6BAE5}" name="Table1" displayName="Table1" ref="A5:AM6" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="41" tableBorderDxfId="42" totalsRowBorderDxfId="40">
+  <autoFilter ref="A5:AM6" xr:uid="{E7D263BD-C78E-40D4-A040-9C504EA6BAE5}"/>
+  <tableColumns count="39">
+    <tableColumn id="1" xr3:uid="{3D02ABD7-C6DF-4C98-AB04-6454C20EC7EA}" name="№" dataDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{ABAF8D6D-5570-4B0A-8E87-01D8FC6B37B4}" name="Emp.№" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{DE6A2B97-D819-4A70-934A-87A89C332C7F}" name="Name of employee        " dataDxfId="37"/>
+    <tableColumn id="4" xr3:uid="{9F129767-A95A-4F89-97EB-7B23CE34984B}" name="Personnel Area" dataDxfId="36"/>
+    <tableColumn id="5" xr3:uid="{C058BB6C-862D-4675-B257-4C2638C9A8BD}" name="Company            " dataDxfId="35"/>
+    <tableColumn id="6" xr3:uid="{49944728-E3F1-4A95-9226-789D452701B0}" name="Department" dataDxfId="34"/>
+    <tableColumn id="7" xr3:uid="{2967BA7E-8EA1-406B-A7A4-2867B181DBC3}" name="Position" dataDxfId="33"/>
+    <tableColumn id="8" xr3:uid="{CECCF04E-5189-4A9B-B441-F9E0CB329562}" name="Work Pattern" dataDxfId="32"/>
+    <tableColumn id="9" xr3:uid="{A3467905-CBB2-4CB6-8731-2933F7BE898A}" name="1" dataDxfId="31"/>
+    <tableColumn id="10" xr3:uid="{7AA79B61-951E-4C48-9CC4-B5FCDD784C8C}" name="2" dataDxfId="30"/>
+    <tableColumn id="11" xr3:uid="{E0C79CFD-FD5F-4A25-B970-46BDD64E5070}" name="3" dataDxfId="29"/>
+    <tableColumn id="12" xr3:uid="{049E732E-B7C3-455E-9DAC-B1D65EE52AD0}" name="4" dataDxfId="28"/>
+    <tableColumn id="13" xr3:uid="{3E5E9336-4270-48DE-8DF3-DF81F6657132}" name="5" dataDxfId="27"/>
+    <tableColumn id="14" xr3:uid="{C6DC2B2C-8BC8-4FE8-B746-55444846FC9A}" name="6" dataDxfId="26"/>
+    <tableColumn id="15" xr3:uid="{9B46C8C4-78B9-444C-9636-EB8082866FF1}" name="7" dataDxfId="25"/>
+    <tableColumn id="16" xr3:uid="{3CB58272-7057-483B-9583-1E2AB5B24EB4}" name="8" dataDxfId="24"/>
+    <tableColumn id="17" xr3:uid="{C78C6E1B-2E5F-44E3-BC7E-9203F877C1B2}" name="9" dataDxfId="23"/>
+    <tableColumn id="18" xr3:uid="{05A5BFDF-9C12-4BC8-82DE-D29B9BB2A05B}" name="10" dataDxfId="22"/>
+    <tableColumn id="19" xr3:uid="{69C4EF09-00A3-4DCD-A294-8D25C89A500F}" name="11" dataDxfId="21"/>
+    <tableColumn id="20" xr3:uid="{3D123ACA-AB44-4068-826B-BFE8E8015AA9}" name="12" dataDxfId="20"/>
+    <tableColumn id="21" xr3:uid="{A5188C84-9825-472A-8AFB-10A2C27CF425}" name="13" dataDxfId="19"/>
+    <tableColumn id="22" xr3:uid="{BC40313A-6793-43AC-8204-85C69125B99F}" name="14" dataDxfId="18"/>
+    <tableColumn id="23" xr3:uid="{64D4A1A4-AD9B-474F-A774-06F926C7C736}" name="15" dataDxfId="17"/>
+    <tableColumn id="24" xr3:uid="{E31102D2-4C1F-4E84-ABF1-AF34CE308275}" name="16" dataDxfId="16"/>
+    <tableColumn id="25" xr3:uid="{252A4D2E-A59B-438A-8C8D-B28F44B7DE03}" name="17" dataDxfId="15"/>
+    <tableColumn id="26" xr3:uid="{E7604304-2DFB-4D81-B79E-41CC7BC9EAF8}" name="18" dataDxfId="14"/>
+    <tableColumn id="27" xr3:uid="{F80E02E7-CCB5-4AF2-9B39-0BCDA2B08F0F}" name="19" dataDxfId="13"/>
+    <tableColumn id="28" xr3:uid="{0DEB8134-C20C-4E3D-8C59-13E2C7E04428}" name="20" dataDxfId="12"/>
+    <tableColumn id="29" xr3:uid="{1F260A01-7211-42ED-9B97-D252C2D6A0AB}" name="21" dataDxfId="11"/>
+    <tableColumn id="30" xr3:uid="{47E88709-A306-4D72-80D6-CAE2199A6B4B}" name="22" dataDxfId="10"/>
+    <tableColumn id="31" xr3:uid="{8E4C3C4D-359A-41AA-8423-76D5ACBED0B5}" name="23" dataDxfId="9"/>
+    <tableColumn id="32" xr3:uid="{897E90F1-172E-4FBB-A4FA-5F6A06203B69}" name="24" dataDxfId="8"/>
+    <tableColumn id="33" xr3:uid="{8C9477F2-6E01-47D9-906F-02C44D7A0676}" name="25" dataDxfId="7"/>
+    <tableColumn id="34" xr3:uid="{FC3AEF5A-9F64-44F0-9365-71177666E4F0}" name="26" dataDxfId="6"/>
+    <tableColumn id="35" xr3:uid="{3A5FD1AC-8DE3-4756-8D76-00AFBDA1A467}" name="27" dataDxfId="5"/>
+    <tableColumn id="36" xr3:uid="{567DA970-E5E4-463C-B010-3B65671A28B6}" name="28" dataDxfId="4"/>
+    <tableColumn id="37" xr3:uid="{E8248BB3-05F1-4BCA-82FF-7B1C56DFBF01}" name="29" dataDxfId="3"/>
+    <tableColumn id="38" xr3:uid="{0D0ACADD-ACF3-4D06-887A-9DAEECDE0609}" name="30" dataDxfId="2"/>
+    <tableColumn id="39" xr3:uid="{2EB3A8C4-CABA-451E-8456-7C9B9F729D2F}" name="31" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -652,21 +1515,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{504AA53D-F855-42BC-BAA4-1C40269C3691}">
   <dimension ref="A1:AM6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1"/>
-    <col min="4" max="8" width="26.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" customWidth="1"/>
+    <col min="3" max="3" width="25.44140625" customWidth="1"/>
+    <col min="4" max="8" width="26.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -674,7 +1539,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -682,255 +1547,257 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="3">
-        <v>1</v>
-      </c>
-      <c r="J5" s="3">
-        <v>2</v>
-      </c>
-      <c r="K5" s="3">
-        <v>3</v>
-      </c>
-      <c r="L5" s="3">
-        <v>4</v>
-      </c>
-      <c r="M5" s="3">
-        <v>5</v>
-      </c>
-      <c r="N5" s="3">
-        <v>6</v>
-      </c>
-      <c r="O5" s="3">
-        <v>7</v>
-      </c>
-      <c r="P5" s="3">
-        <v>8</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>9</v>
-      </c>
-      <c r="R5" s="3">
+      <c r="I5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y5" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB5" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC5" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD5" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF5" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH5" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AJ5" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK5" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL5" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM5" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="S5" s="3">
+      <c r="B6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="T5" s="3">
+      <c r="C6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="U5" s="3">
-        <v>13</v>
-      </c>
-      <c r="V5" s="3">
+      <c r="D6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="W5" s="3">
+      <c r="E6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="X5" s="3">
-        <v>16</v>
-      </c>
-      <c r="Y5" s="3">
-        <v>17</v>
-      </c>
-      <c r="Z5" s="3">
+      <c r="F6" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="AA5" s="3">
+      <c r="H6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AB5" s="3">
+      <c r="I6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="AC5" s="3">
+      <c r="J6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="AD5" s="3">
+      <c r="K6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="AE5" s="3">
+      <c r="L6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="AF5" s="3">
+      <c r="M6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="AG5" s="3">
+      <c r="N6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AH5" s="3">
+      <c r="O6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="AI5" s="3">
+      <c r="P6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AJ5" s="3">
+      <c r="Q6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AK5" s="3">
+      <c r="R6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="AL5" s="3">
+      <c r="S6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AM5" s="3">
+      <c r="T6" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="R6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="S6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="T6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="U6" s="5" t="s">
+      <c r="U6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="V6" s="5" t="s">
+      <c r="V6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="W6" s="5" t="s">
+      <c r="W6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="X6" s="5" t="s">
+      <c r="X6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="Y6" s="5" t="s">
+      <c r="Y6" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="Z6" s="5" t="s">
+      <c r="Z6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="AA6" s="5" t="s">
+      <c r="AA6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="AB6" s="5" t="s">
+      <c r="AB6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="AC6" s="5" t="s">
+      <c r="AC6" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AD6" s="5" t="s">
+      <c r="AD6" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AE6" s="5" t="s">
+      <c r="AE6" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AF6" s="5" t="s">
+      <c r="AF6" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AG6" s="5" t="s">
+      <c r="AG6" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="AH6" s="5" t="s">
+      <c r="AH6" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="AI6" s="5" t="s">
+      <c r="AI6" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="AJ6" s="5" t="s">
+      <c r="AJ6" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="AK6" s="5" t="s">
+      <c r="AK6" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AL6" s="5" t="s">
+      <c r="AL6" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="AM6" s="5" t="s">
+      <c r="AM6" s="8" t="s">
         <v>50</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A5:AM5" xr:uid="{504AA53D-F855-42BC-BAA4-1C40269C3691}"/>
   <conditionalFormatting sqref="I1:AM1048576">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="44" priority="2">
       <formula>I1="FREE"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="43" priority="1">
       <formula>FIND("-",I1)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>